--- a/dados_graduacao/Tabela2.11.xlsx
+++ b/dados_graduacao/Tabela2.11.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="190">
   <si>
     <t xml:space="preserve">Unidade acadêmica / curso / habilitação</t>
   </si>
@@ -579,6 +579,9 @@
   </si>
   <si>
     <t xml:space="preserve">Relações Internacionais (B - Integral)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total geral</t>
   </si>
 </sst>
 </file>
@@ -7463,6 +7466,47 @@
         <v>10</v>
       </c>
     </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>189</v>
+      </c>
+      <c r="B178" t="n">
+        <v>38724</v>
+      </c>
+      <c r="C178" t="n">
+        <v>37654</v>
+      </c>
+      <c r="D178" t="n">
+        <v>713</v>
+      </c>
+      <c r="E178" t="n">
+        <v>665</v>
+      </c>
+      <c r="F178" t="n">
+        <v>329</v>
+      </c>
+      <c r="G178" t="n">
+        <v>116</v>
+      </c>
+      <c r="H178" t="n">
+        <v>247</v>
+      </c>
+      <c r="I178" t="n">
+        <v>279</v>
+      </c>
+      <c r="J178" t="n">
+        <v>553</v>
+      </c>
+      <c r="K178" t="n">
+        <v>1068</v>
+      </c>
+      <c r="L178" t="n">
+        <v>1842</v>
+      </c>
+      <c r="M178" t="n">
+        <v>2128</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
